--- a/Team-Data/2014-15/2-22-2014-15.xlsx
+++ b/Team-Data/2014-15/2-22-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,37 +733,37 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" t="n">
         <v>12</v>
       </c>
       <c r="G2" t="n">
-        <v>0.786</v>
+        <v>0.782</v>
       </c>
       <c r="H2" t="n">
         <v>48.2</v>
       </c>
       <c r="I2" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="J2" t="n">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.467</v>
+        <v>0.468</v>
       </c>
       <c r="L2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="M2" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="N2" t="n">
-        <v>0.383</v>
+        <v>0.385</v>
       </c>
       <c r="O2" t="n">
         <v>17.4</v>
@@ -705,13 +772,13 @@
         <v>22.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.775</v>
+        <v>0.774</v>
       </c>
       <c r="R2" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="S2" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T2" t="n">
         <v>41.1</v>
@@ -720,31 +787,31 @@
         <v>25.6</v>
       </c>
       <c r="V2" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W2" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="X2" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z2" t="n">
         <v>18</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.9</v>
+        <v>103</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AD2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
@@ -756,7 +823,7 @@
         <v>2</v>
       </c>
       <c r="AH2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI2" t="n">
         <v>12</v>
@@ -789,7 +856,7 @@
         <v>30</v>
       </c>
       <c r="AS2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT2" t="n">
         <v>27</v>
@@ -798,13 +865,13 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW2" t="n">
         <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY2" t="n">
         <v>15</v>
@@ -813,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="BA2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB2" t="n">
         <v>6</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-22-2014-15</t>
+          <t>2015-02-22</t>
         </is>
       </c>
     </row>
@@ -848,61 +915,61 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" t="n">
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" t="n">
-        <v>0.377</v>
+        <v>0.385</v>
       </c>
       <c r="H3" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
       <c r="J3" t="n">
-        <v>88.09999999999999</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L3" t="n">
         <v>7.6</v>
       </c>
       <c r="M3" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0.324</v>
+        <v>0.326</v>
       </c>
       <c r="O3" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="P3" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.749</v>
+        <v>0.75</v>
       </c>
       <c r="R3" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S3" t="n">
         <v>32.7</v>
       </c>
       <c r="T3" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U3" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="V3" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W3" t="n">
         <v>8.1</v>
@@ -911,22 +978,22 @@
         <v>3.9</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>101</v>
+        <v>100.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>-1.7</v>
+        <v>-1.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE3" t="n">
         <v>22</v>
@@ -938,7 +1005,7 @@
         <v>22</v>
       </c>
       <c r="AH3" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AI3" t="n">
         <v>5</v>
@@ -947,22 +1014,22 @@
         <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL3" t="n">
         <v>13</v>
       </c>
       <c r="AM3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN3" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO3" t="n">
         <v>28</v>
       </c>
       <c r="AP3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ3" t="n">
         <v>18</v>
@@ -974,13 +1041,13 @@
         <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU3" t="n">
         <v>5</v>
       </c>
       <c r="AV3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW3" t="n">
         <v>10</v>
@@ -989,16 +1056,16 @@
         <v>29</v>
       </c>
       <c r="AY3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ3" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="BA3" t="n">
         <v>30</v>
       </c>
       <c r="BB3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC3" t="n">
         <v>19</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-22-2014-15</t>
+          <t>2015-02-22</t>
         </is>
       </c>
     </row>
@@ -1108,10 +1175,10 @@
         <v>-3.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AF4" t="n">
         <v>17</v>
@@ -1126,7 +1193,7 @@
         <v>23</v>
       </c>
       <c r="AJ4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK4" t="n">
         <v>17</v>
@@ -1147,22 +1214,22 @@
         <v>19</v>
       </c>
       <c r="AQ4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR4" t="n">
         <v>26</v>
       </c>
       <c r="AS4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT4" t="n">
         <v>23</v>
       </c>
       <c r="AU4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW4" t="n">
         <v>24</v>
@@ -1171,7 +1238,7 @@
         <v>23</v>
       </c>
       <c r="AY4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ4" t="n">
         <v>15</v>
@@ -1180,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="BB4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-22-2014-15</t>
+          <t>2015-02-22</t>
         </is>
       </c>
     </row>
@@ -1212,28 +1279,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" t="n">
         <v>22</v>
       </c>
       <c r="F5" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" t="n">
-        <v>0.407</v>
+        <v>0.415</v>
       </c>
       <c r="H5" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I5" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="J5" t="n">
-        <v>84.8</v>
+        <v>84.7</v>
       </c>
       <c r="K5" t="n">
-        <v>0.421</v>
+        <v>0.422</v>
       </c>
       <c r="L5" t="n">
         <v>5.7</v>
@@ -1245,22 +1312,22 @@
         <v>0.308</v>
       </c>
       <c r="O5" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P5" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.736</v>
+        <v>0.737</v>
       </c>
       <c r="R5" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="S5" t="n">
         <v>33.7</v>
       </c>
       <c r="T5" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U5" t="n">
         <v>20.5</v>
@@ -1269,10 +1336,10 @@
         <v>11.8</v>
       </c>
       <c r="W5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="X5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y5" t="n">
         <v>5.5</v>
@@ -1281,28 +1348,28 @@
         <v>18.7</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.2</v>
+        <v>94.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.8</v>
+        <v>-2.7</v>
       </c>
       <c r="AD5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE5" t="n">
         <v>18</v>
       </c>
-      <c r="AE5" t="n">
-        <v>20</v>
-      </c>
       <c r="AF5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI5" t="n">
         <v>28</v>
@@ -1326,7 +1393,7 @@
         <v>15</v>
       </c>
       <c r="AP5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ5" t="n">
         <v>24</v>
@@ -1335,13 +1402,13 @@
         <v>23</v>
       </c>
       <c r="AS5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1353,10 +1420,10 @@
         <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA5" t="n">
         <v>5</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-22-2014-15</t>
+          <t>2015-02-22</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>2.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
         <v>9</v>
@@ -1493,7 +1560,7 @@
         <v>16</v>
       </c>
       <c r="AK6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL6" t="n">
         <v>12</v>
@@ -1502,7 +1569,7 @@
         <v>16</v>
       </c>
       <c r="AN6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO6" t="n">
         <v>2</v>
@@ -1514,7 +1581,7 @@
         <v>2</v>
       </c>
       <c r="AR6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS6" t="n">
         <v>8</v>
@@ -1523,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV6" t="n">
         <v>12</v>
@@ -1535,10 +1602,10 @@
         <v>1</v>
       </c>
       <c r="AY6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA6" t="n">
         <v>3</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-22-2014-15</t>
+          <t>2015-02-22</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" t="n">
         <v>22</v>
       </c>
       <c r="G7" t="n">
-        <v>0.614</v>
+        <v>0.607</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
@@ -1597,34 +1664,34 @@
         <v>82.2</v>
       </c>
       <c r="K7" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L7" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="M7" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="N7" t="n">
         <v>0.355</v>
       </c>
       <c r="O7" t="n">
-        <v>18.1</v>
+        <v>18.3</v>
       </c>
       <c r="P7" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.751</v>
+        <v>0.753</v>
       </c>
       <c r="R7" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S7" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="T7" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U7" t="n">
         <v>21.9</v>
@@ -1639,43 +1706,43 @@
         <v>4.1</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="n">
         <v>102.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF7" t="n">
         <v>11</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI7" t="n">
         <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL7" t="n">
         <v>8</v>
@@ -1690,7 +1757,7 @@
         <v>8</v>
       </c>
       <c r="AP7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ7" t="n">
         <v>17</v>
@@ -1699,7 +1766,7 @@
         <v>11</v>
       </c>
       <c r="AS7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT7" t="n">
         <v>18</v>
@@ -1717,19 +1784,19 @@
         <v>25</v>
       </c>
       <c r="AY7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB7" t="n">
         <v>8</v>
       </c>
       <c r="BC7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-22-2014-15</t>
+          <t>2015-02-22</t>
         </is>
       </c>
     </row>
@@ -1761,13 +1828,13 @@
         <v>57</v>
       </c>
       <c r="E8" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" t="n">
-        <v>0.667</v>
+        <v>0.649</v>
       </c>
       <c r="H8" t="n">
         <v>48.5</v>
@@ -1785,10 +1852,10 @@
         <v>9.6</v>
       </c>
       <c r="M8" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="N8" t="n">
-        <v>0.356</v>
+        <v>0.358</v>
       </c>
       <c r="O8" t="n">
         <v>16.6</v>
@@ -1797,43 +1864,43 @@
         <v>21.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.758</v>
+        <v>0.759</v>
       </c>
       <c r="R8" t="n">
         <v>10.8</v>
       </c>
       <c r="S8" t="n">
-        <v>31.9</v>
+        <v>31.6</v>
       </c>
       <c r="T8" t="n">
-        <v>42.7</v>
+        <v>42.4</v>
       </c>
       <c r="U8" t="n">
         <v>23</v>
       </c>
       <c r="V8" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="W8" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X8" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA8" t="n">
         <v>21.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>106</v>
+        <v>106.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -1842,16 +1909,16 @@
         <v>4</v>
       </c>
       <c r="AF8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ8" t="n">
         <v>6</v>
@@ -1866,10 +1933,10 @@
         <v>4</v>
       </c>
       <c r="AN8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP8" t="n">
         <v>20</v>
@@ -1878,13 +1945,13 @@
         <v>14</v>
       </c>
       <c r="AR8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS8" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AT8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1899,7 +1966,7 @@
         <v>11</v>
       </c>
       <c r="AY8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ8" t="n">
         <v>14</v>
@@ -1908,7 +1975,7 @@
         <v>2</v>
       </c>
       <c r="BB8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC8" t="n">
         <v>4</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-22-2014-15</t>
+          <t>2015-02-22</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" t="n">
         <v>20</v>
       </c>
       <c r="F9" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" t="n">
-        <v>0.364</v>
+        <v>0.37</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
@@ -1958,10 +2025,10 @@
         <v>37.3</v>
       </c>
       <c r="J9" t="n">
-        <v>86.40000000000001</v>
+        <v>86.2</v>
       </c>
       <c r="K9" t="n">
-        <v>0.431</v>
+        <v>0.433</v>
       </c>
       <c r="L9" t="n">
         <v>7.4</v>
@@ -1970,34 +2037,34 @@
         <v>23.5</v>
       </c>
       <c r="N9" t="n">
-        <v>0.314</v>
+        <v>0.315</v>
       </c>
       <c r="O9" t="n">
         <v>18.3</v>
       </c>
       <c r="P9" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.74</v>
+        <v>0.739</v>
       </c>
       <c r="R9" t="n">
         <v>12.1</v>
       </c>
       <c r="S9" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="T9" t="n">
         <v>44.9</v>
       </c>
       <c r="U9" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V9" t="n">
         <v>14.1</v>
       </c>
       <c r="W9" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X9" t="n">
         <v>4.8</v>
@@ -2009,43 +2076,43 @@
         <v>23</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB9" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="AC9" t="n">
-        <v>-3.9</v>
+        <v>-3.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AE9" t="n">
         <v>22</v>
       </c>
       <c r="AF9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ9" t="n">
         <v>4</v>
       </c>
       <c r="AK9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
         <v>15</v>
       </c>
       <c r="AM9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN9" t="n">
         <v>28</v>
@@ -2057,10 +2124,10 @@
         <v>6</v>
       </c>
       <c r="AQ9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AS9" t="n">
         <v>10</v>
@@ -2078,7 +2145,7 @@
         <v>22</v>
       </c>
       <c r="AX9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY9" t="n">
         <v>27</v>
@@ -2093,7 +2160,7 @@
         <v>15</v>
       </c>
       <c r="BC9" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-22-2014-15</t>
+          <t>2015-02-22</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" t="n">
         <v>33</v>
       </c>
       <c r="G10" t="n">
-        <v>0.411</v>
+        <v>0.4</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2140,40 +2207,40 @@
         <v>36.6</v>
       </c>
       <c r="J10" t="n">
-        <v>85.5</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K10" t="n">
         <v>0.429</v>
       </c>
       <c r="L10" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="M10" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="N10" t="n">
-        <v>0.344</v>
+        <v>0.343</v>
       </c>
       <c r="O10" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P10" t="n">
         <v>23.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.709</v>
+        <v>0.708</v>
       </c>
       <c r="R10" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="S10" t="n">
         <v>32.4</v>
       </c>
       <c r="T10" t="n">
-        <v>45.3</v>
+        <v>45.2</v>
       </c>
       <c r="U10" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V10" t="n">
         <v>13.6</v>
@@ -2182,10 +2249,10 @@
         <v>7.8</v>
       </c>
       <c r="X10" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z10" t="n">
         <v>18.9</v>
@@ -2194,22 +2261,22 @@
         <v>19.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1</v>
+        <v>-1.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG10" t="n">
         <v>20</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>19</v>
       </c>
       <c r="AH10" t="n">
         <v>20</v>
@@ -2230,13 +2297,13 @@
         <v>10</v>
       </c>
       <c r="AN10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO10" t="n">
         <v>22</v>
       </c>
       <c r="AP10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ10" t="n">
         <v>29</v>
@@ -2260,7 +2327,7 @@
         <v>14</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY10" t="n">
         <v>18</v>
@@ -2275,7 +2342,7 @@
         <v>21</v>
       </c>
       <c r="BC10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-22-2014-15</t>
+          <t>2015-02-22</t>
         </is>
       </c>
     </row>
@@ -2304,28 +2371,28 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" t="n">
         <v>43</v>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.827</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
       </c>
       <c r="I11" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="J11" t="n">
-        <v>87</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.479</v>
+        <v>0.481</v>
       </c>
       <c r="L11" t="n">
         <v>10.5</v>
@@ -2334,31 +2401,31 @@
         <v>27.2</v>
       </c>
       <c r="N11" t="n">
-        <v>0.386</v>
+        <v>0.387</v>
       </c>
       <c r="O11" t="n">
         <v>16.5</v>
       </c>
       <c r="P11" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.775</v>
+        <v>0.771</v>
       </c>
       <c r="R11" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S11" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="T11" t="n">
         <v>45</v>
       </c>
       <c r="U11" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="V11" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W11" t="n">
         <v>9.4</v>
@@ -2370,22 +2437,22 @@
         <v>3.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AB11" t="n">
-        <v>110.3</v>
+        <v>110.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.6</v>
+        <v>10.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF11" t="n">
         <v>1</v>
@@ -2415,13 +2482,13 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP11" t="n">
         <v>24</v>
       </c>
       <c r="AQ11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR11" t="n">
         <v>22</v>
@@ -2436,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="AV11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW11" t="n">
         <v>4</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-22-2014-15</t>
+          <t>2015-02-22</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" t="n">
         <v>18</v>
       </c>
       <c r="G12" t="n">
-        <v>0.667</v>
+        <v>0.673</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J12" t="n">
-        <v>84</v>
+        <v>83.8</v>
       </c>
       <c r="K12" t="n">
         <v>0.439</v>
@@ -2513,19 +2580,19 @@
         <v>11.7</v>
       </c>
       <c r="M12" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="N12" t="n">
-        <v>0.347</v>
+        <v>0.348</v>
       </c>
       <c r="O12" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="P12" t="n">
-        <v>24.3</v>
+        <v>24.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.718</v>
+        <v>0.716</v>
       </c>
       <c r="R12" t="n">
         <v>12.1</v>
@@ -2537,49 +2604,49 @@
         <v>43.6</v>
       </c>
       <c r="U12" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V12" t="n">
         <v>17.1</v>
       </c>
       <c r="W12" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X12" t="n">
         <v>4.7</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.9</v>
+        <v>103</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AF12" t="n">
         <v>4</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ12" t="n">
         <v>13</v>
@@ -2597,7 +2664,7 @@
         <v>16</v>
       </c>
       <c r="AO12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP12" t="n">
         <v>7</v>
@@ -2606,34 +2673,34 @@
         <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AU12" t="n">
         <v>14</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>13</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-22-2014-15</t>
+          <t>2015-02-22</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" t="n">
         <v>33</v>
       </c>
       <c r="G13" t="n">
-        <v>0.411</v>
+        <v>0.4</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
@@ -2686,10 +2753,10 @@
         <v>36.4</v>
       </c>
       <c r="J13" t="n">
-        <v>83.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L13" t="n">
         <v>6.9</v>
@@ -2698,7 +2765,7 @@
         <v>20.8</v>
       </c>
       <c r="N13" t="n">
-        <v>0.335</v>
+        <v>0.333</v>
       </c>
       <c r="O13" t="n">
         <v>16.4</v>
@@ -2710,13 +2777,13 @@
         <v>0.765</v>
       </c>
       <c r="R13" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S13" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="T13" t="n">
-        <v>44.8</v>
+        <v>44.7</v>
       </c>
       <c r="U13" t="n">
         <v>21.3</v>
@@ -2725,7 +2792,7 @@
         <v>14.4</v>
       </c>
       <c r="W13" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="X13" t="n">
         <v>4.4</v>
@@ -2734,37 +2801,37 @@
         <v>4.9</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA13" t="n">
         <v>20.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>96.2</v>
+        <v>96</v>
       </c>
       <c r="AC13" t="n">
-        <v>-1</v>
+        <v>-1.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG13" t="n">
         <v>20</v>
       </c>
-      <c r="AG13" t="n">
-        <v>19</v>
-      </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI13" t="n">
         <v>24</v>
       </c>
       <c r="AJ13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AK13" t="n">
         <v>24</v>
@@ -2785,7 +2852,7 @@
         <v>23</v>
       </c>
       <c r="AQ13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR13" t="n">
         <v>20</v>
@@ -2800,7 +2867,7 @@
         <v>18</v>
       </c>
       <c r="AV13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW13" t="n">
         <v>29</v>
@@ -2815,13 +2882,13 @@
         <v>16</v>
       </c>
       <c r="BA13" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BB13" t="n">
         <v>23</v>
       </c>
       <c r="BC13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-22-2014-15</t>
+          <t>2015-02-22</t>
         </is>
       </c>
     </row>
@@ -2928,13 +2995,13 @@
         <v>6.4</v>
       </c>
       <c r="AD14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE14" t="n">
         <v>4</v>
       </c>
-      <c r="AE14" t="n">
-        <v>5</v>
-      </c>
       <c r="AF14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG14" t="n">
         <v>7</v>
@@ -2988,7 +3055,7 @@
         <v>12</v>
       </c>
       <c r="AX14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-22-2014-15</t>
+          <t>2015-02-22</t>
         </is>
       </c>
     </row>
@@ -3035,82 +3102,82 @@
         <v>54</v>
       </c>
       <c r="E15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G15" t="n">
-        <v>0.259</v>
+        <v>0.241</v>
       </c>
       <c r="H15" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>37.5</v>
+        <v>37.2</v>
       </c>
       <c r="J15" t="n">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="K15" t="n">
-        <v>0.435</v>
+        <v>0.432</v>
       </c>
       <c r="L15" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M15" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="N15" t="n">
-        <v>0.346</v>
+        <v>0.345</v>
       </c>
       <c r="O15" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="P15" t="n">
         <v>24.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.74</v>
+        <v>0.744</v>
       </c>
       <c r="R15" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S15" t="n">
-        <v>32</v>
+        <v>31.7</v>
       </c>
       <c r="T15" t="n">
-        <v>43.9</v>
+        <v>43.7</v>
       </c>
       <c r="U15" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V15" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="W15" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X15" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Y15" t="n">
         <v>4.5</v>
       </c>
-      <c r="Y15" t="n">
-        <v>4.6</v>
-      </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA15" t="n">
         <v>19.9</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.7</v>
+        <v>99.2</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.7</v>
+        <v>-7.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3122,16 +3189,16 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ15" t="n">
         <v>5</v>
       </c>
       <c r="AK15" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL15" t="n">
         <v>24</v>
@@ -3140,49 +3207,49 @@
         <v>22</v>
       </c>
       <c r="AN15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO15" t="n">
         <v>10</v>
       </c>
       <c r="AP15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR15" t="n">
         <v>8</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AS15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU15" t="n">
         <v>23</v>
       </c>
-      <c r="AR15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>16</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>22</v>
-      </c>
       <c r="AV15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW15" t="n">
         <v>19</v>
       </c>
       <c r="AX15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ15" t="n">
         <v>19</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>17</v>
       </c>
       <c r="BA15" t="n">
         <v>19</v>
       </c>
       <c r="BB15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-22-2014-15</t>
+          <t>2015-02-22</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" t="n">
         <v>14</v>
       </c>
       <c r="G16" t="n">
-        <v>0.741</v>
+        <v>0.736</v>
       </c>
       <c r="H16" t="n">
         <v>48.8</v>
@@ -3232,34 +3299,34 @@
         <v>38.4</v>
       </c>
       <c r="J16" t="n">
-        <v>83.40000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="K16" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L16" t="n">
         <v>5.3</v>
       </c>
       <c r="M16" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="N16" t="n">
         <v>0.34</v>
       </c>
       <c r="O16" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P16" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.779</v>
+        <v>0.778</v>
       </c>
       <c r="R16" t="n">
         <v>10.6</v>
       </c>
       <c r="S16" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T16" t="n">
         <v>43.2</v>
@@ -3268,31 +3335,31 @@
         <v>22</v>
       </c>
       <c r="V16" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="W16" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X16" t="n">
         <v>4.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z16" t="n">
         <v>19.2</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="AC16" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3310,7 +3377,7 @@
         <v>7</v>
       </c>
       <c r="AJ16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AK16" t="n">
         <v>8</v>
@@ -3337,7 +3404,7 @@
         <v>19</v>
       </c>
       <c r="AS16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT16" t="n">
         <v>16</v>
@@ -3352,7 +3419,7 @@
         <v>7</v>
       </c>
       <c r="AX16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY16" t="n">
         <v>19</v>
@@ -3361,13 +3428,13 @@
         <v>9</v>
       </c>
       <c r="BA16" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BB16" t="n">
         <v>14</v>
       </c>
       <c r="BC16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-22-2014-15</t>
+          <t>2015-02-22</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3504,16 +3571,16 @@
         <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP17" t="n">
         <v>13</v>
       </c>
       <c r="AQ17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3528,7 +3595,7 @@
         <v>29</v>
       </c>
       <c r="AV17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW17" t="n">
         <v>11</v>
@@ -3537,7 +3604,7 @@
         <v>24</v>
       </c>
       <c r="AY17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ17" t="n">
         <v>12</v>
@@ -3549,7 +3616,7 @@
         <v>28</v>
       </c>
       <c r="BC17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-22-2014-15</t>
+          <t>2015-02-22</t>
         </is>
       </c>
     </row>
@@ -3578,25 +3645,25 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" t="n">
         <v>31</v>
       </c>
       <c r="F18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.574</v>
       </c>
       <c r="H18" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I18" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="J18" t="n">
-        <v>81.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K18" t="n">
         <v>0.465</v>
@@ -3605,19 +3672,19 @@
         <v>7.1</v>
       </c>
       <c r="M18" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="N18" t="n">
-        <v>0.376</v>
+        <v>0.378</v>
       </c>
       <c r="O18" t="n">
         <v>16.1</v>
       </c>
       <c r="P18" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.777</v>
+        <v>0.774</v>
       </c>
       <c r="R18" t="n">
         <v>10</v>
@@ -3626,13 +3693,13 @@
         <v>31.3</v>
       </c>
       <c r="T18" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U18" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="V18" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="W18" t="n">
         <v>9.5</v>
@@ -3647,16 +3714,16 @@
         <v>22.3</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.8</v>
+        <v>99</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AE18" t="n">
         <v>13</v>
@@ -3668,13 +3735,13 @@
         <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK18" t="n">
         <v>5</v>
@@ -3689,7 +3756,7 @@
         <v>3</v>
       </c>
       <c r="AO18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP18" t="n">
         <v>26</v>
@@ -3698,31 +3765,31 @@
         <v>6</v>
       </c>
       <c r="AR18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS18" t="n">
         <v>24</v>
       </c>
       <c r="AT18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU18" t="n">
         <v>7</v>
       </c>
       <c r="AV18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW18" t="n">
         <v>3</v>
       </c>
       <c r="AX18" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AY18" t="n">
         <v>12</v>
       </c>
       <c r="AZ18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA18" t="n">
         <v>22</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-22-2014-15</t>
+          <t>2015-02-22</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-8.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE19" t="n">
         <v>28</v>
@@ -3880,13 +3947,13 @@
         <v>15</v>
       </c>
       <c r="AR19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS19" t="n">
         <v>29</v>
       </c>
       <c r="AT19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU19" t="n">
         <v>10</v>
@@ -3898,7 +3965,7 @@
         <v>8</v>
       </c>
       <c r="AX19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY19" t="n">
         <v>28</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-22-2014-15</t>
+          <t>2015-02-22</t>
         </is>
       </c>
     </row>
@@ -3942,85 +4009,85 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F20" t="n">
         <v>27</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5</v>
+        <v>0.509</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J20" t="n">
-        <v>83.3</v>
+        <v>83.7</v>
       </c>
       <c r="K20" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L20" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M20" t="n">
         <v>19.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.355</v>
+        <v>0.353</v>
       </c>
       <c r="O20" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P20" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.771</v>
+        <v>0.764</v>
       </c>
       <c r="R20" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="S20" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T20" t="n">
-        <v>43.6</v>
+        <v>43.9</v>
       </c>
       <c r="U20" t="n">
         <v>21.4</v>
       </c>
       <c r="V20" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="W20" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X20" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
         <v>16</v>
@@ -4032,13 +4099,13 @@
         <v>16</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>14</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>17</v>
       </c>
       <c r="AK20" t="n">
         <v>14</v>
@@ -4050,7 +4117,7 @@
         <v>24</v>
       </c>
       <c r="AN20" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AO20" t="n">
         <v>14</v>
@@ -4059,31 +4126,31 @@
         <v>17</v>
       </c>
       <c r="AQ20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AT20" t="n">
         <v>10</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>20</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>14</v>
       </c>
       <c r="AU20" t="n">
         <v>17</v>
       </c>
       <c r="AV20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY20" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AZ20" t="n">
         <v>6</v>
@@ -4092,7 +4159,7 @@
         <v>27</v>
       </c>
       <c r="BB20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC20" t="n">
         <v>16</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-22-2014-15</t>
+          <t>2015-02-22</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G21" t="n">
-        <v>0.182</v>
+        <v>0.185</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
@@ -4142,46 +4209,46 @@
         <v>35.8</v>
       </c>
       <c r="J21" t="n">
-        <v>82.40000000000001</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L21" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M21" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="N21" t="n">
-        <v>0.355</v>
+        <v>0.359</v>
       </c>
       <c r="O21" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="P21" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="Q21" t="n">
         <v>0.768</v>
       </c>
       <c r="R21" t="n">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="S21" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="T21" t="n">
-        <v>39.9</v>
+        <v>39.7</v>
       </c>
       <c r="U21" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V21" t="n">
         <v>14.4</v>
       </c>
       <c r="W21" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X21" t="n">
         <v>4</v>
@@ -4190,19 +4257,19 @@
         <v>4.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA21" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>92.3</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>-8.199999999999999</v>
+        <v>-8</v>
       </c>
       <c r="AD21" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4220,10 +4287,10 @@
         <v>27</v>
       </c>
       <c r="AJ21" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AK21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL21" t="n">
         <v>18</v>
@@ -4232,7 +4299,7 @@
         <v>20</v>
       </c>
       <c r="AN21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4244,7 +4311,7 @@
         <v>11</v>
       </c>
       <c r="AR21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AS21" t="n">
         <v>30</v>
@@ -4253,16 +4320,16 @@
         <v>29</v>
       </c>
       <c r="AU21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AW21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY21" t="n">
         <v>6</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-22-2014-15</t>
+          <t>2015-02-22</t>
         </is>
       </c>
     </row>
@@ -4306,28 +4373,28 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F22" t="n">
         <v>25</v>
       </c>
       <c r="G22" t="n">
-        <v>0.554</v>
+        <v>0.545</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="J22" t="n">
-        <v>85.3</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L22" t="n">
         <v>7.3</v>
@@ -4336,37 +4403,37 @@
         <v>22.5</v>
       </c>
       <c r="N22" t="n">
-        <v>0.326</v>
+        <v>0.324</v>
       </c>
       <c r="O22" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="P22" t="n">
         <v>23.9</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.754</v>
+        <v>0.756</v>
       </c>
       <c r="R22" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="S22" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
       <c r="T22" t="n">
-        <v>47.2</v>
+        <v>47</v>
       </c>
       <c r="U22" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="V22" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W22" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X22" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Y22" t="n">
         <v>4.5</v>
@@ -4375,19 +4442,19 @@
         <v>22.3</v>
       </c>
       <c r="AA22" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>101.2</v>
+        <v>100.9</v>
       </c>
       <c r="AC22" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF22" t="n">
         <v>14</v>
@@ -4396,25 +4463,25 @@
         <v>14</v>
       </c>
       <c r="AH22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI22" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AJ22" t="n">
         <v>9</v>
       </c>
       <c r="AK22" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AL22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM22" t="n">
         <v>15</v>
       </c>
       <c r="AN22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO22" t="n">
         <v>9</v>
@@ -4426,7 +4493,7 @@
         <v>16</v>
       </c>
       <c r="AR22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS22" t="n">
         <v>2</v>
@@ -4435,10 +4502,10 @@
         <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AV22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW22" t="n">
         <v>21</v>
@@ -4450,7 +4517,7 @@
         <v>10</v>
       </c>
       <c r="AZ22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA22" t="n">
         <v>18</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-22-2014-15</t>
+          <t>2015-02-22</t>
         </is>
       </c>
     </row>
@@ -4491,85 +4558,85 @@
         <v>57</v>
       </c>
       <c r="E23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F23" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G23" t="n">
-        <v>0.333</v>
+        <v>0.316</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.5</v>
+        <v>37.3</v>
       </c>
       <c r="J23" t="n">
         <v>81.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.459</v>
+        <v>0.457</v>
       </c>
       <c r="L23" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M23" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="N23" t="n">
-        <v>0.353</v>
+        <v>0.356</v>
       </c>
       <c r="O23" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="P23" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.733</v>
+        <v>0.734</v>
       </c>
       <c r="R23" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="S23" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="T23" t="n">
-        <v>40.5</v>
+        <v>40.8</v>
       </c>
       <c r="U23" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V23" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W23" t="n">
         <v>7.5</v>
       </c>
       <c r="X23" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="Z23" t="n">
         <v>21.2</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="AB23" t="n">
-        <v>96</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.3</v>
+        <v>-5.7</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF23" t="n">
         <v>26</v>
@@ -4581,13 +4648,13 @@
         <v>26</v>
       </c>
       <c r="AI23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ23" t="n">
         <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL23" t="n">
         <v>22</v>
@@ -4596,7 +4663,7 @@
         <v>23</v>
       </c>
       <c r="AN23" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AO23" t="n">
         <v>29</v>
@@ -4611,16 +4678,16 @@
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AT23" t="n">
         <v>28</v>
       </c>
       <c r="AU23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW23" t="n">
         <v>16</v>
@@ -4629,16 +4696,16 @@
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BA23" t="n">
         <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BC23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-22-2014-15</t>
+          <t>2015-02-22</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" t="n">
         <v>12</v>
       </c>
       <c r="F24" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G24" t="n">
-        <v>0.218</v>
+        <v>0.222</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
@@ -4691,31 +4758,31 @@
         <v>80.40000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.411</v>
+        <v>0.41</v>
       </c>
       <c r="L24" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="M24" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.312</v>
+        <v>0.31</v>
       </c>
       <c r="O24" t="n">
         <v>16.5</v>
       </c>
       <c r="P24" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="R24" t="n">
         <v>11.4</v>
       </c>
       <c r="S24" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T24" t="n">
         <v>42.3</v>
@@ -4733,34 +4800,34 @@
         <v>6.1</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AA24" t="n">
         <v>20.4</v>
       </c>
       <c r="AB24" t="n">
-        <v>90.09999999999999</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>-10.6</v>
+        <v>-10.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
       </c>
       <c r="AF24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
@@ -4781,10 +4848,10 @@
         <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
@@ -4805,19 +4872,19 @@
         <v>30</v>
       </c>
       <c r="AW24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX24" t="n">
         <v>3</v>
       </c>
       <c r="AY24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ24" t="n">
         <v>21</v>
       </c>
       <c r="BA24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-22-2014-15</t>
+          <t>2015-02-22</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>1</v>
       </c>
       <c r="AD25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>15</v>
@@ -4945,7 +5012,7 @@
         <v>12</v>
       </c>
       <c r="AI25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ25" t="n">
         <v>3</v>
@@ -4963,7 +5030,7 @@
         <v>8</v>
       </c>
       <c r="AO25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP25" t="n">
         <v>25</v>
@@ -4972,19 +5039,19 @@
         <v>4</v>
       </c>
       <c r="AR25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AT25" t="n">
         <v>19</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>20</v>
       </c>
       <c r="AU25" t="n">
         <v>21</v>
       </c>
       <c r="AV25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW25" t="n">
         <v>5</v>
@@ -4999,10 +5066,10 @@
         <v>26</v>
       </c>
       <c r="BA25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC25" t="n">
         <v>15</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-22-2014-15</t>
+          <t>2015-02-22</t>
         </is>
       </c>
     </row>
@@ -5034,70 +5101,70 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" t="n">
         <v>36</v>
       </c>
       <c r="F26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G26" t="n">
-        <v>0.655</v>
+        <v>0.667</v>
       </c>
       <c r="H26" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I26" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="J26" t="n">
-        <v>85.90000000000001</v>
+        <v>86</v>
       </c>
       <c r="K26" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L26" t="n">
         <v>10</v>
       </c>
       <c r="M26" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="N26" t="n">
-        <v>0.36</v>
+        <v>0.359</v>
       </c>
       <c r="O26" t="n">
         <v>15.9</v>
       </c>
       <c r="P26" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="Q26" t="n">
         <v>0.797</v>
       </c>
       <c r="R26" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S26" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="T26" t="n">
         <v>45.8</v>
       </c>
       <c r="U26" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="V26" t="n">
         <v>13.8</v>
       </c>
       <c r="W26" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X26" t="n">
         <v>5</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Z26" t="n">
         <v>18.7</v>
@@ -5106,25 +5173,25 @@
         <v>19.4</v>
       </c>
       <c r="AB26" t="n">
-        <v>101.9</v>
+        <v>102.1</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AE26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH26" t="n">
         <v>7</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>9</v>
       </c>
       <c r="AI26" t="n">
         <v>9</v>
@@ -5148,7 +5215,7 @@
         <v>27</v>
       </c>
       <c r="AP26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
@@ -5169,16 +5236,16 @@
         <v>9</v>
       </c>
       <c r="AW26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX26" t="n">
         <v>9</v>
       </c>
       <c r="AY26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA26" t="n">
         <v>24</v>
@@ -5187,7 +5254,7 @@
         <v>10</v>
       </c>
       <c r="BC26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-22-2014-15</t>
+          <t>2015-02-22</t>
         </is>
       </c>
     </row>
@@ -5294,19 +5361,19 @@
         <v>-4.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
       </c>
       <c r="AF27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG27" t="n">
         <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI27" t="n">
         <v>25</v>
@@ -5324,7 +5391,7 @@
         <v>28</v>
       </c>
       <c r="AN27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5333,7 +5400,7 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR27" t="n">
         <v>12</v>
@@ -5357,10 +5424,10 @@
         <v>28</v>
       </c>
       <c r="AY27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA27" t="n">
         <v>1</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-22-2014-15</t>
+          <t>2015-02-22</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F28" t="n">
         <v>21</v>
       </c>
       <c r="G28" t="n">
-        <v>0.611</v>
+        <v>0.618</v>
       </c>
       <c r="H28" t="n">
         <v>48.8</v>
@@ -5416,49 +5483,49 @@
         <v>38</v>
       </c>
       <c r="J28" t="n">
-        <v>83.59999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M28" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.36</v>
+        <v>0.363</v>
       </c>
       <c r="O28" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P28" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="Q28" t="n">
         <v>0.768</v>
       </c>
       <c r="R28" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S28" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="T28" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U28" t="n">
         <v>24.5</v>
       </c>
       <c r="V28" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W28" t="n">
         <v>7.6</v>
       </c>
       <c r="X28" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y28" t="n">
         <v>4.8</v>
@@ -5473,28 +5540,28 @@
         <v>100.9</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF28" t="n">
         <v>9</v>
       </c>
       <c r="AG28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI28" t="n">
         <v>10</v>
       </c>
       <c r="AJ28" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AK28" t="n">
         <v>11</v>
@@ -5506,31 +5573,31 @@
         <v>14</v>
       </c>
       <c r="AN28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS28" t="n">
         <v>7</v>
       </c>
-      <c r="AO28" t="n">
-        <v>18</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>24</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>6</v>
-      </c>
       <c r="AT28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU28" t="n">
         <v>4</v>
       </c>
       <c r="AV28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AW28" t="n">
         <v>15</v>
@@ -5539,7 +5606,7 @@
         <v>8</v>
       </c>
       <c r="AY28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ28" t="n">
         <v>10</v>
@@ -5548,10 +5615,10 @@
         <v>23</v>
       </c>
       <c r="BB28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-22-2014-15</t>
+          <t>2015-02-22</t>
         </is>
       </c>
     </row>
@@ -5658,10 +5725,10 @@
         <v>4.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF29" t="n">
         <v>4</v>
@@ -5670,7 +5737,7 @@
         <v>4</v>
       </c>
       <c r="AH29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI29" t="n">
         <v>8</v>
@@ -5712,7 +5779,7 @@
         <v>20</v>
       </c>
       <c r="AV29" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW29" t="n">
         <v>13</v>
@@ -5724,7 +5791,7 @@
         <v>20</v>
       </c>
       <c r="AZ29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA29" t="n">
         <v>7</v>
@@ -5733,7 +5800,7 @@
         <v>5</v>
       </c>
       <c r="BC29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-22-2014-15</t>
+          <t>2015-02-22</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE30" t="n">
         <v>22</v>
@@ -5864,16 +5931,16 @@
         <v>15</v>
       </c>
       <c r="AL30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM30" t="n">
         <v>17</v>
       </c>
       <c r="AN30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP30" t="n">
         <v>16</v>
@@ -5882,7 +5949,7 @@
         <v>26</v>
       </c>
       <c r="AR30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS30" t="n">
         <v>25</v>
@@ -5900,7 +5967,7 @@
         <v>23</v>
       </c>
       <c r="AX30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY30" t="n">
         <v>17</v>
@@ -5912,7 +5979,7 @@
         <v>25</v>
       </c>
       <c r="BB30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC30" t="n">
         <v>20</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-22-2014-15</t>
+          <t>2015-02-22</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E31" t="n">
         <v>33</v>
       </c>
       <c r="F31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G31" t="n">
-        <v>0.589</v>
+        <v>0.6</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
@@ -5974,16 +6041,16 @@
         <v>16.2</v>
       </c>
       <c r="N31" t="n">
-        <v>0.368</v>
+        <v>0.369</v>
       </c>
       <c r="O31" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P31" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.742</v>
+        <v>0.743</v>
       </c>
       <c r="R31" t="n">
         <v>10.5</v>
@@ -6001,46 +6068,46 @@
         <v>15</v>
       </c>
       <c r="W31" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X31" t="n">
         <v>4.7</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA31" t="n">
         <v>20.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF31" t="n">
         <v>11</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>12</v>
       </c>
       <c r="AG31" t="n">
         <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI31" t="n">
         <v>6</v>
       </c>
       <c r="AJ31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK31" t="n">
         <v>3</v>
@@ -6055,16 +6122,16 @@
         <v>5</v>
       </c>
       <c r="AO31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS31" t="n">
         <v>9</v>
@@ -6076,25 +6143,25 @@
         <v>6</v>
       </c>
       <c r="AV31" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AW31" t="n">
         <v>17</v>
       </c>
       <c r="AX31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA31" t="n">
         <v>17</v>
       </c>
       <c r="BB31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC31" t="n">
         <v>14</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-22-2014-15</t>
+          <t>2015-02-22</t>
         </is>
       </c>
     </row>
